--- a/teaching/traditional_assets/database/data/germany/germany_restaurant_dining.xlsx
+++ b/teaching/traditional_assets/database/data/germany/germany_restaurant_dining.xlsx
@@ -597,10 +597,10 @@
         <v>-0.01571890892279242</v>
       </c>
       <c r="I2">
-        <v>-0.196361148421421</v>
+        <v>-0.1685440409879511</v>
       </c>
       <c r="J2">
-        <v>-0.196361148421421</v>
+        <v>-0.1685440409879511</v>
       </c>
       <c r="K2">
         <v>-118.8</v>
@@ -633,52 +633,52 @@
         <v>13.9</v>
       </c>
       <c r="V2">
-        <v>0.1339113680154143</v>
+        <v>1.670673076923077</v>
       </c>
       <c r="W2">
         <v>-1.234927234927235</v>
       </c>
       <c r="X2">
-        <v>0.2524950311117524</v>
+        <v>2.883122350314508</v>
       </c>
       <c r="Y2">
-        <v>-1.487422266038987</v>
+        <v>-4.118049585241742</v>
       </c>
       <c r="Z2">
-        <v>0.6587190331882282</v>
+        <v>0.725156645441475</v>
       </c>
       <c r="AA2">
-        <v>-0.1293468258438886</v>
+        <v>-0.1222208313719731</v>
       </c>
       <c r="AB2">
-        <v>0.04884372237702662</v>
+        <v>0.08234438985867926</v>
       </c>
       <c r="AC2">
-        <v>-0.1781905482209152</v>
+        <v>-0.2045652212306523</v>
       </c>
       <c r="AD2">
         <v>481.1</v>
       </c>
       <c r="AE2">
-        <v>367.7291640355335</v>
+        <v>307.5607606569383</v>
       </c>
       <c r="AF2">
-        <v>848.8291640355335</v>
+        <v>788.6607606569382</v>
       </c>
       <c r="AG2">
-        <v>834.9291640355335</v>
+        <v>774.7607606569383</v>
       </c>
       <c r="AH2">
-        <v>0.891038397816542</v>
+        <v>0.9895606011955144</v>
       </c>
       <c r="AI2">
-        <v>0.9998916271570346</v>
+        <v>0.9998833601546784</v>
       </c>
       <c r="AJ2">
-        <v>0.889424975832464</v>
+        <v>0.9893752976474351</v>
       </c>
       <c r="AK2">
-        <v>0.9998898231518404</v>
+        <v>0.9998812677650887</v>
       </c>
       <c r="AL2">
         <v>26.1</v>
@@ -693,7 +693,7 @@
         <v>-2.398467432950191</v>
       </c>
       <c r="AP2">
-        <v>11.26760005446064</v>
+        <v>10.45561080508689</v>
       </c>
       <c r="AQ2">
         <v>-2.63246425567704</v>
@@ -722,10 +722,10 @@
         <v>-0.01571890892279242</v>
       </c>
       <c r="I3">
-        <v>-0.196361148421421</v>
+        <v>-0.1685440409879511</v>
       </c>
       <c r="J3">
-        <v>-0.196361148421421</v>
+        <v>-0.1685440409879511</v>
       </c>
       <c r="K3">
         <v>-118.8</v>
@@ -758,52 +758,52 @@
         <v>13.9</v>
       </c>
       <c r="V3">
-        <v>0.1339113680154143</v>
+        <v>1.670673076923077</v>
       </c>
       <c r="W3">
         <v>-1.234927234927235</v>
       </c>
       <c r="X3">
-        <v>0.2524950311117524</v>
+        <v>2.883122350314508</v>
       </c>
       <c r="Y3">
-        <v>-1.487422266038987</v>
+        <v>-4.118049585241742</v>
       </c>
       <c r="Z3">
-        <v>0.6587190331882282</v>
+        <v>0.725156645441475</v>
       </c>
       <c r="AA3">
-        <v>-0.1293468258438886</v>
+        <v>-0.1222208313719731</v>
       </c>
       <c r="AB3">
-        <v>0.04884372237702662</v>
+        <v>0.08234438985867926</v>
       </c>
       <c r="AC3">
-        <v>-0.1781905482209152</v>
+        <v>-0.2045652212306523</v>
       </c>
       <c r="AD3">
         <v>481.1</v>
       </c>
       <c r="AE3">
-        <v>367.7291640355335</v>
+        <v>307.5607606569383</v>
       </c>
       <c r="AF3">
-        <v>848.8291640355335</v>
+        <v>788.6607606569382</v>
       </c>
       <c r="AG3">
-        <v>834.9291640355335</v>
+        <v>774.7607606569383</v>
       </c>
       <c r="AH3">
-        <v>0.891038397816542</v>
+        <v>0.9895606011955144</v>
       </c>
       <c r="AI3">
-        <v>0.9998916271570346</v>
+        <v>0.9998833601546784</v>
       </c>
       <c r="AJ3">
-        <v>0.889424975832464</v>
+        <v>0.9893752976474351</v>
       </c>
       <c r="AK3">
-        <v>0.9998898231518404</v>
+        <v>0.9998812677650887</v>
       </c>
       <c r="AL3">
         <v>26.1</v>
@@ -818,7 +818,7 @@
         <v>-2.398467432950191</v>
       </c>
       <c r="AP3">
-        <v>11.26760005446064</v>
+        <v>10.45561080508689</v>
       </c>
       <c r="AQ3">
         <v>-2.63246425567704</v>
